--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_UserToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_UserToUserRole.xlsx
@@ -5388,7 +5388,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_UserToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_UserToUserRole.xlsx
@@ -375,7 +375,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5083,6 +5090,54 @@
           </cell>
           <cell r="F588">
             <v>4000000000585</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="B589" t="str">
+            <v>(LDAP) budi.sandika</v>
+          </cell>
+          <cell r="F589">
+            <v>4000000000586</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="B590" t="str">
+            <v>(LDAP) fachri.azhar</v>
+          </cell>
+          <cell r="F590">
+            <v>4000000000587</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="B591" t="str">
+            <v>(LDAP) firmansyah.awaludin</v>
+          </cell>
+          <cell r="F591">
+            <v>4000000000588</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="B592" t="str">
+            <v>(LDAP) iman.faisal</v>
+          </cell>
+          <cell r="F592">
+            <v>4000000000589</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="B593" t="str">
+            <v>(LDAP) muhammad.irfan</v>
+          </cell>
+          <cell r="F593">
+            <v>4000000000590</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="B594" t="str">
+            <v>(LDAP) syafri.johansah</v>
+          </cell>
+          <cell r="F594">
+            <v>4000000000591</v>
           </cell>
         </row>
       </sheetData>
@@ -5385,10 +5440,10 @@
   <dimension ref="B1:I628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6220,19 +6275,20 @@
         <f>IF(EXACT([1]MAIN!$F32, ""), "", [1]MAIN!$B32)</f>
         <v>(LDAP) fikri</v>
       </c>
-      <c r="D36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="6"/>
+      <c r="D36" s="7">
+        <v>4000000000029</v>
+      </c>
+      <c r="E36" s="6">
+        <v>95000000000021</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="H36" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>PERFORM "SchSysConfig"."Func_TblMapper_UserToUserRole_SET"(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 4000000000029::bigint, 95000000000021::bigint, null::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -6252,7 +6308,7 @@
       <c r="F37" s="6"/>
       <c r="H37" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I37" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6276,7 +6332,7 @@
       <c r="F38" s="6"/>
       <c r="H38" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I38" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6300,7 +6356,7 @@
       <c r="F39" s="6"/>
       <c r="H39" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I39" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6324,7 +6380,7 @@
       <c r="F40" s="6"/>
       <c r="H40" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I40" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6348,7 +6404,7 @@
       <c r="F41" s="6"/>
       <c r="H41" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I41" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6372,7 +6428,7 @@
       <c r="F42" s="6"/>
       <c r="H42" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I42" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6396,7 +6452,7 @@
       <c r="F43" s="6"/>
       <c r="H43" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I43" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6420,7 +6476,7 @@
       <c r="F44" s="6"/>
       <c r="H44" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I44" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6444,7 +6500,7 @@
       <c r="F45" s="6"/>
       <c r="H45" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000005</v>
+        <v>96000000000006</v>
       </c>
       <c r="I45" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6470,7 +6526,7 @@
       <c r="F46" s="6"/>
       <c r="H46" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I46" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6494,7 +6550,7 @@
       <c r="F47" s="6"/>
       <c r="H47" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I47" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6518,7 +6574,7 @@
       <c r="F48" s="6"/>
       <c r="H48" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I48" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6542,7 +6598,7 @@
       <c r="F49" s="6"/>
       <c r="H49" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I49" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6566,7 +6622,7 @@
       <c r="F50" s="6"/>
       <c r="H50" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I50" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6590,7 +6646,7 @@
       <c r="F51" s="6"/>
       <c r="H51" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I51" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6614,7 +6670,7 @@
       <c r="F52" s="6"/>
       <c r="H52" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I52" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6638,7 +6694,7 @@
       <c r="F53" s="6"/>
       <c r="H53" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I53" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6662,7 +6718,7 @@
       <c r="F54" s="6"/>
       <c r="H54" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I54" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6686,7 +6742,7 @@
       <c r="F55" s="6"/>
       <c r="H55" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I55" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6710,7 +6766,7 @@
       <c r="F56" s="6"/>
       <c r="H56" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I56" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6734,7 +6790,7 @@
       <c r="F57" s="6"/>
       <c r="H57" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I57" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6758,7 +6814,7 @@
       <c r="F58" s="6"/>
       <c r="H58" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I58" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6782,7 +6838,7 @@
       <c r="F59" s="6"/>
       <c r="H59" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I59" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6806,7 +6862,7 @@
       <c r="F60" s="6"/>
       <c r="H60" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I60" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6830,7 +6886,7 @@
       <c r="F61" s="6"/>
       <c r="H61" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I61" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6854,7 +6910,7 @@
       <c r="F62" s="6"/>
       <c r="H62" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I62" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6878,7 +6934,7 @@
       <c r="F63" s="6"/>
       <c r="H63" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I63" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6902,7 +6958,7 @@
       <c r="F64" s="6"/>
       <c r="H64" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I64" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6926,7 +6982,7 @@
       <c r="F65" s="6"/>
       <c r="H65" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I65" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6950,7 +7006,7 @@
       <c r="F66" s="6"/>
       <c r="H66" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I66" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6974,7 +7030,7 @@
       <c r="F67" s="6"/>
       <c r="H67" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I67" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6998,7 +7054,7 @@
       <c r="F68" s="6"/>
       <c r="H68" s="17">
         <f t="shared" si="1"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I68" s="16" t="str">
         <f t="shared" si="2"/>
@@ -7022,7 +7078,7 @@
       <c r="F69" s="6"/>
       <c r="H69" s="17">
         <f t="shared" ref="H69:H132" si="4" xml:space="preserve"> H68 + IF(EXACT(I69, ""), 0, 1)</f>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I69" s="16" t="str">
         <f t="shared" ref="I69:I132" si="5">IF(EXACT(E69, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D69, ""), "null", D69), "::bigint, ", IF(EXACT(E69, ""), "null", E69), "::bigint, ", IF(EXACT(F69, ""), "null", F69), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -7046,7 +7102,7 @@
       <c r="F70" s="6"/>
       <c r="H70" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I70" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7070,7 +7126,7 @@
       <c r="F71" s="6"/>
       <c r="H71" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I71" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7094,7 +7150,7 @@
       <c r="F72" s="6"/>
       <c r="H72" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I72" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7118,7 +7174,7 @@
       <c r="F73" s="6"/>
       <c r="H73" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I73" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7142,7 +7198,7 @@
       <c r="F74" s="6"/>
       <c r="H74" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I74" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7166,7 +7222,7 @@
       <c r="F75" s="6"/>
       <c r="H75" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I75" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7190,7 +7246,7 @@
       <c r="F76" s="6"/>
       <c r="H76" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I76" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7214,7 +7270,7 @@
       <c r="F77" s="6"/>
       <c r="H77" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I77" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7238,7 +7294,7 @@
       <c r="F78" s="6"/>
       <c r="H78" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I78" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7262,7 +7318,7 @@
       <c r="F79" s="6"/>
       <c r="H79" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I79" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7286,7 +7342,7 @@
       <c r="F80" s="6"/>
       <c r="H80" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I80" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7310,7 +7366,7 @@
       <c r="F81" s="6"/>
       <c r="H81" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I81" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7334,7 +7390,7 @@
       <c r="F82" s="6"/>
       <c r="H82" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I82" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7358,7 +7414,7 @@
       <c r="F83" s="6"/>
       <c r="H83" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I83" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7382,7 +7438,7 @@
       <c r="F84" s="6"/>
       <c r="H84" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I84" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7406,7 +7462,7 @@
       <c r="F85" s="6"/>
       <c r="H85" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I85" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7430,7 +7486,7 @@
       <c r="F86" s="6"/>
       <c r="H86" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I86" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7454,7 +7510,7 @@
       <c r="F87" s="6"/>
       <c r="H87" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I87" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7478,7 +7534,7 @@
       <c r="F88" s="6"/>
       <c r="H88" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I88" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7502,7 +7558,7 @@
       <c r="F89" s="6"/>
       <c r="H89" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I89" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7526,7 +7582,7 @@
       <c r="F90" s="6"/>
       <c r="H90" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I90" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7550,7 +7606,7 @@
       <c r="F91" s="6"/>
       <c r="H91" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I91" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7574,7 +7630,7 @@
       <c r="F92" s="6"/>
       <c r="H92" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I92" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7598,7 +7654,7 @@
       <c r="F93" s="6"/>
       <c r="H93" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I93" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7622,7 +7678,7 @@
       <c r="F94" s="6"/>
       <c r="H94" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I94" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7646,7 +7702,7 @@
       <c r="F95" s="6"/>
       <c r="H95" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I95" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7670,7 +7726,7 @@
       <c r="F96" s="6"/>
       <c r="H96" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I96" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7694,7 +7750,7 @@
       <c r="F97" s="6"/>
       <c r="H97" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I97" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7718,7 +7774,7 @@
       <c r="F98" s="6"/>
       <c r="H98" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I98" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7742,7 +7798,7 @@
       <c r="F99" s="6"/>
       <c r="H99" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I99" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7766,7 +7822,7 @@
       <c r="F100" s="6"/>
       <c r="H100" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I100" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7790,7 +7846,7 @@
       <c r="F101" s="6"/>
       <c r="H101" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I101" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7814,7 +7870,7 @@
       <c r="F102" s="6"/>
       <c r="H102" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I102" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7838,7 +7894,7 @@
       <c r="F103" s="6"/>
       <c r="H103" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I103" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7862,7 +7918,7 @@
       <c r="F104" s="6"/>
       <c r="H104" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I104" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7886,7 +7942,7 @@
       <c r="F105" s="6"/>
       <c r="H105" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I105" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7910,7 +7966,7 @@
       <c r="F106" s="6"/>
       <c r="H106" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I106" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7934,7 +7990,7 @@
       <c r="F107" s="6"/>
       <c r="H107" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I107" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7958,7 +8014,7 @@
       <c r="F108" s="6"/>
       <c r="H108" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I108" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7982,7 +8038,7 @@
       <c r="F109" s="6"/>
       <c r="H109" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I109" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8006,7 +8062,7 @@
       <c r="F110" s="6"/>
       <c r="H110" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I110" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8030,7 +8086,7 @@
       <c r="F111" s="6"/>
       <c r="H111" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I111" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8054,7 +8110,7 @@
       <c r="F112" s="6"/>
       <c r="H112" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I112" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8078,7 +8134,7 @@
       <c r="F113" s="6"/>
       <c r="H113" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I113" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8102,7 +8158,7 @@
       <c r="F114" s="6"/>
       <c r="H114" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I114" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8126,7 +8182,7 @@
       <c r="F115" s="6"/>
       <c r="H115" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I115" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8150,7 +8206,7 @@
       <c r="F116" s="6"/>
       <c r="H116" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I116" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8174,7 +8230,7 @@
       <c r="F117" s="6"/>
       <c r="H117" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I117" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8198,7 +8254,7 @@
       <c r="F118" s="6"/>
       <c r="H118" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I118" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8222,7 +8278,7 @@
       <c r="F119" s="6"/>
       <c r="H119" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I119" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8246,7 +8302,7 @@
       <c r="F120" s="6"/>
       <c r="H120" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I120" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8270,7 +8326,7 @@
       <c r="F121" s="6"/>
       <c r="H121" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I121" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8294,7 +8350,7 @@
       <c r="F122" s="6"/>
       <c r="H122" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I122" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8318,7 +8374,7 @@
       <c r="F123" s="6"/>
       <c r="H123" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I123" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8342,7 +8398,7 @@
       <c r="F124" s="6"/>
       <c r="H124" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I124" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8366,7 +8422,7 @@
       <c r="F125" s="6"/>
       <c r="H125" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I125" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8390,7 +8446,7 @@
       <c r="F126" s="6"/>
       <c r="H126" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I126" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8414,7 +8470,7 @@
       <c r="F127" s="6"/>
       <c r="H127" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I127" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8438,7 +8494,7 @@
       <c r="F128" s="6"/>
       <c r="H128" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I128" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8462,7 +8518,7 @@
       <c r="F129" s="6"/>
       <c r="H129" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I129" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8486,7 +8542,7 @@
       <c r="F130" s="6"/>
       <c r="H130" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I130" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8510,7 +8566,7 @@
       <c r="F131" s="6"/>
       <c r="H131" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I131" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8534,7 +8590,7 @@
       <c r="F132" s="6"/>
       <c r="H132" s="17">
         <f t="shared" si="4"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I132" s="16" t="str">
         <f t="shared" si="5"/>
@@ -8558,7 +8614,7 @@
       <c r="F133" s="6"/>
       <c r="H133" s="17">
         <f t="shared" ref="H133:H196" si="7" xml:space="preserve"> H132 + IF(EXACT(I133, ""), 0, 1)</f>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I133" s="16" t="str">
         <f t="shared" ref="I133:I196" si="8">IF(EXACT(E133, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D133, ""), "null", D133), "::bigint, ", IF(EXACT(E133, ""), "null", E133), "::bigint, ", IF(EXACT(F133, ""), "null", F133), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -8582,7 +8638,7 @@
       <c r="F134" s="6"/>
       <c r="H134" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I134" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8606,7 +8662,7 @@
       <c r="F135" s="6"/>
       <c r="H135" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I135" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8630,7 +8686,7 @@
       <c r="F136" s="6"/>
       <c r="H136" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I136" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8654,7 +8710,7 @@
       <c r="F137" s="6"/>
       <c r="H137" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I137" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8678,7 +8734,7 @@
       <c r="F138" s="6"/>
       <c r="H138" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I138" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8702,7 +8758,7 @@
       <c r="F139" s="6"/>
       <c r="H139" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I139" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8726,7 +8782,7 @@
       <c r="F140" s="6"/>
       <c r="H140" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I140" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8750,7 +8806,7 @@
       <c r="F141" s="6"/>
       <c r="H141" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I141" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8774,7 +8830,7 @@
       <c r="F142" s="6"/>
       <c r="H142" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I142" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8798,7 +8854,7 @@
       <c r="F143" s="6"/>
       <c r="H143" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I143" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8822,7 +8878,7 @@
       <c r="F144" s="6"/>
       <c r="H144" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I144" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8846,7 +8902,7 @@
       <c r="F145" s="6"/>
       <c r="H145" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I145" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8870,7 +8926,7 @@
       <c r="F146" s="6"/>
       <c r="H146" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I146" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8894,7 +8950,7 @@
       <c r="F147" s="6"/>
       <c r="H147" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I147" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8918,7 +8974,7 @@
       <c r="F148" s="6"/>
       <c r="H148" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I148" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8942,7 +8998,7 @@
       <c r="F149" s="6"/>
       <c r="H149" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I149" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8966,7 +9022,7 @@
       <c r="F150" s="6"/>
       <c r="H150" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I150" s="16" t="str">
         <f t="shared" si="8"/>
@@ -8990,7 +9046,7 @@
       <c r="F151" s="6"/>
       <c r="H151" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I151" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9014,7 +9070,7 @@
       <c r="F152" s="6"/>
       <c r="H152" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I152" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9038,7 +9094,7 @@
       <c r="F153" s="6"/>
       <c r="H153" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I153" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9062,7 +9118,7 @@
       <c r="F154" s="6"/>
       <c r="H154" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I154" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9086,7 +9142,7 @@
       <c r="F155" s="6"/>
       <c r="H155" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I155" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9110,7 +9166,7 @@
       <c r="F156" s="6"/>
       <c r="H156" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I156" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9134,7 +9190,7 @@
       <c r="F157" s="6"/>
       <c r="H157" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I157" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9158,7 +9214,7 @@
       <c r="F158" s="6"/>
       <c r="H158" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I158" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9182,7 +9238,7 @@
       <c r="F159" s="6"/>
       <c r="H159" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I159" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9206,7 +9262,7 @@
       <c r="F160" s="6"/>
       <c r="H160" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I160" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9230,7 +9286,7 @@
       <c r="F161" s="6"/>
       <c r="H161" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I161" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9254,7 +9310,7 @@
       <c r="F162" s="6"/>
       <c r="H162" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I162" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9278,7 +9334,7 @@
       <c r="F163" s="6"/>
       <c r="H163" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I163" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9302,7 +9358,7 @@
       <c r="F164" s="6"/>
       <c r="H164" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I164" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9326,7 +9382,7 @@
       <c r="F165" s="6"/>
       <c r="H165" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I165" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9350,7 +9406,7 @@
       <c r="F166" s="6"/>
       <c r="H166" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I166" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9374,7 +9430,7 @@
       <c r="F167" s="6"/>
       <c r="H167" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I167" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9398,7 +9454,7 @@
       <c r="F168" s="6"/>
       <c r="H168" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I168" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9422,7 +9478,7 @@
       <c r="F169" s="6"/>
       <c r="H169" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I169" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9446,7 +9502,7 @@
       <c r="F170" s="6"/>
       <c r="H170" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I170" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9470,7 +9526,7 @@
       <c r="F171" s="6"/>
       <c r="H171" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I171" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9494,7 +9550,7 @@
       <c r="F172" s="6"/>
       <c r="H172" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I172" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9518,7 +9574,7 @@
       <c r="F173" s="6"/>
       <c r="H173" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I173" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9542,7 +9598,7 @@
       <c r="F174" s="6"/>
       <c r="H174" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I174" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9566,7 +9622,7 @@
       <c r="F175" s="6"/>
       <c r="H175" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I175" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9590,7 +9646,7 @@
       <c r="F176" s="6"/>
       <c r="H176" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I176" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9614,7 +9670,7 @@
       <c r="F177" s="6"/>
       <c r="H177" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I177" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9638,7 +9694,7 @@
       <c r="F178" s="6"/>
       <c r="H178" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I178" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9662,7 +9718,7 @@
       <c r="F179" s="6"/>
       <c r="H179" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I179" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9686,7 +9742,7 @@
       <c r="F180" s="6"/>
       <c r="H180" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I180" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9710,7 +9766,7 @@
       <c r="F181" s="6"/>
       <c r="H181" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I181" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9734,7 +9790,7 @@
       <c r="F182" s="6"/>
       <c r="H182" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I182" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9758,7 +9814,7 @@
       <c r="F183" s="6"/>
       <c r="H183" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I183" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9782,7 +9838,7 @@
       <c r="F184" s="6"/>
       <c r="H184" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I184" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9806,7 +9862,7 @@
       <c r="F185" s="6"/>
       <c r="H185" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I185" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9830,7 +9886,7 @@
       <c r="F186" s="6"/>
       <c r="H186" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I186" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9854,7 +9910,7 @@
       <c r="F187" s="6"/>
       <c r="H187" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I187" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9878,7 +9934,7 @@
       <c r="F188" s="6"/>
       <c r="H188" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I188" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9902,7 +9958,7 @@
       <c r="F189" s="6"/>
       <c r="H189" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I189" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9926,7 +9982,7 @@
       <c r="F190" s="6"/>
       <c r="H190" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I190" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9950,7 +10006,7 @@
       <c r="F191" s="6"/>
       <c r="H191" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I191" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9974,7 +10030,7 @@
       <c r="F192" s="6"/>
       <c r="H192" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I192" s="16" t="str">
         <f t="shared" si="8"/>
@@ -9998,7 +10054,7 @@
       <c r="F193" s="6"/>
       <c r="H193" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I193" s="16" t="str">
         <f t="shared" si="8"/>
@@ -10022,7 +10078,7 @@
       <c r="F194" s="6"/>
       <c r="H194" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I194" s="16" t="str">
         <f t="shared" si="8"/>
@@ -10046,7 +10102,7 @@
       <c r="F195" s="6"/>
       <c r="H195" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I195" s="16" t="str">
         <f t="shared" si="8"/>
@@ -10070,7 +10126,7 @@
       <c r="F196" s="6"/>
       <c r="H196" s="17">
         <f t="shared" si="7"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I196" s="16" t="str">
         <f t="shared" si="8"/>
@@ -10094,7 +10150,7 @@
       <c r="F197" s="6"/>
       <c r="H197" s="17">
         <f t="shared" ref="H197:H260" si="10" xml:space="preserve"> H196 + IF(EXACT(I197, ""), 0, 1)</f>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I197" s="16" t="str">
         <f t="shared" ref="I197:I260" si="11">IF(EXACT(E197, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D197, ""), "null", D197), "::bigint, ", IF(EXACT(E197, ""), "null", E197), "::bigint, ", IF(EXACT(F197, ""), "null", F197), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -10118,7 +10174,7 @@
       <c r="F198" s="6"/>
       <c r="H198" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I198" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10142,7 +10198,7 @@
       <c r="F199" s="6"/>
       <c r="H199" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I199" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10166,7 +10222,7 @@
       <c r="F200" s="6"/>
       <c r="H200" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I200" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10190,7 +10246,7 @@
       <c r="F201" s="6"/>
       <c r="H201" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I201" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10214,7 +10270,7 @@
       <c r="F202" s="6"/>
       <c r="H202" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I202" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10238,7 +10294,7 @@
       <c r="F203" s="6"/>
       <c r="H203" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I203" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10262,7 +10318,7 @@
       <c r="F204" s="6"/>
       <c r="H204" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I204" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10286,7 +10342,7 @@
       <c r="F205" s="6"/>
       <c r="H205" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I205" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10310,7 +10366,7 @@
       <c r="F206" s="6"/>
       <c r="H206" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I206" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10334,7 +10390,7 @@
       <c r="F207" s="6"/>
       <c r="H207" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I207" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10358,7 +10414,7 @@
       <c r="F208" s="6"/>
       <c r="H208" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I208" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10382,7 +10438,7 @@
       <c r="F209" s="6"/>
       <c r="H209" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I209" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10406,7 +10462,7 @@
       <c r="F210" s="6"/>
       <c r="H210" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I210" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10430,7 +10486,7 @@
       <c r="F211" s="6"/>
       <c r="H211" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I211" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10454,7 +10510,7 @@
       <c r="F212" s="6"/>
       <c r="H212" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I212" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10478,7 +10534,7 @@
       <c r="F213" s="6"/>
       <c r="H213" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I213" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10502,7 +10558,7 @@
       <c r="F214" s="6"/>
       <c r="H214" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I214" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10526,7 +10582,7 @@
       <c r="F215" s="6"/>
       <c r="H215" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I215" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10550,7 +10606,7 @@
       <c r="F216" s="6"/>
       <c r="H216" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I216" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10574,7 +10630,7 @@
       <c r="F217" s="6"/>
       <c r="H217" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I217" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10598,7 +10654,7 @@
       <c r="F218" s="6"/>
       <c r="H218" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I218" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10622,7 +10678,7 @@
       <c r="F219" s="6"/>
       <c r="H219" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I219" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10646,7 +10702,7 @@
       <c r="F220" s="6"/>
       <c r="H220" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I220" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10670,7 +10726,7 @@
       <c r="F221" s="6"/>
       <c r="H221" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I221" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10694,7 +10750,7 @@
       <c r="F222" s="6"/>
       <c r="H222" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I222" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10718,7 +10774,7 @@
       <c r="F223" s="6"/>
       <c r="H223" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I223" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10742,7 +10798,7 @@
       <c r="F224" s="6"/>
       <c r="H224" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I224" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10766,7 +10822,7 @@
       <c r="F225" s="6"/>
       <c r="H225" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I225" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10790,7 +10846,7 @@
       <c r="F226" s="6"/>
       <c r="H226" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I226" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10814,7 +10870,7 @@
       <c r="F227" s="6"/>
       <c r="H227" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I227" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10838,7 +10894,7 @@
       <c r="F228" s="6"/>
       <c r="H228" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I228" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10862,7 +10918,7 @@
       <c r="F229" s="6"/>
       <c r="H229" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I229" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10886,7 +10942,7 @@
       <c r="F230" s="6"/>
       <c r="H230" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I230" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10910,7 +10966,7 @@
       <c r="F231" s="6"/>
       <c r="H231" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I231" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10934,7 +10990,7 @@
       <c r="F232" s="6"/>
       <c r="H232" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I232" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10958,7 +11014,7 @@
       <c r="F233" s="6"/>
       <c r="H233" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I233" s="16" t="str">
         <f t="shared" si="11"/>
@@ -10982,7 +11038,7 @@
       <c r="F234" s="6"/>
       <c r="H234" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I234" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11006,7 +11062,7 @@
       <c r="F235" s="6"/>
       <c r="H235" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I235" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11030,7 +11086,7 @@
       <c r="F236" s="6"/>
       <c r="H236" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I236" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11054,7 +11110,7 @@
       <c r="F237" s="6"/>
       <c r="H237" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I237" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11078,7 +11134,7 @@
       <c r="F238" s="6"/>
       <c r="H238" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I238" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11102,7 +11158,7 @@
       <c r="F239" s="6"/>
       <c r="H239" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I239" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11126,7 +11182,7 @@
       <c r="F240" s="6"/>
       <c r="H240" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I240" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11150,7 +11206,7 @@
       <c r="F241" s="6"/>
       <c r="H241" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I241" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11174,7 +11230,7 @@
       <c r="F242" s="6"/>
       <c r="H242" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I242" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11198,7 +11254,7 @@
       <c r="F243" s="6"/>
       <c r="H243" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I243" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11222,7 +11278,7 @@
       <c r="F244" s="6"/>
       <c r="H244" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I244" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11246,7 +11302,7 @@
       <c r="F245" s="6"/>
       <c r="H245" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I245" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11270,7 +11326,7 @@
       <c r="F246" s="6"/>
       <c r="H246" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I246" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11294,7 +11350,7 @@
       <c r="F247" s="6"/>
       <c r="H247" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I247" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11318,7 +11374,7 @@
       <c r="F248" s="6"/>
       <c r="H248" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="I248" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11344,7 +11400,7 @@
       <c r="F249" s="6"/>
       <c r="H249" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I249" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11368,7 +11424,7 @@
       <c r="F250" s="6"/>
       <c r="H250" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I250" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11392,7 +11448,7 @@
       <c r="F251" s="6"/>
       <c r="H251" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I251" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11416,7 +11472,7 @@
       <c r="F252" s="6"/>
       <c r="H252" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I252" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11440,7 +11496,7 @@
       <c r="F253" s="6"/>
       <c r="H253" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I253" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11464,7 +11520,7 @@
       <c r="F254" s="6"/>
       <c r="H254" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I254" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11488,7 +11544,7 @@
       <c r="F255" s="6"/>
       <c r="H255" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I255" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11512,7 +11568,7 @@
       <c r="F256" s="6"/>
       <c r="H256" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I256" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11536,7 +11592,7 @@
       <c r="F257" s="6"/>
       <c r="H257" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I257" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11560,7 +11616,7 @@
       <c r="F258" s="6"/>
       <c r="H258" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I258" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11584,7 +11640,7 @@
       <c r="F259" s="6"/>
       <c r="H259" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I259" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11608,7 +11664,7 @@
       <c r="F260" s="6"/>
       <c r="H260" s="17">
         <f t="shared" si="10"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I260" s="16" t="str">
         <f t="shared" si="11"/>
@@ -11632,7 +11688,7 @@
       <c r="F261" s="6"/>
       <c r="H261" s="17">
         <f t="shared" ref="H261:H324" si="13" xml:space="preserve"> H260 + IF(EXACT(I261, ""), 0, 1)</f>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I261" s="16" t="str">
         <f t="shared" ref="I261:I324" si="14">IF(EXACT(E261, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D261, ""), "null", D261), "::bigint, ", IF(EXACT(E261, ""), "null", E261), "::bigint, ", IF(EXACT(F261, ""), "null", F261), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -11656,7 +11712,7 @@
       <c r="F262" s="6"/>
       <c r="H262" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I262" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11680,7 +11736,7 @@
       <c r="F263" s="6"/>
       <c r="H263" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I263" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11704,7 +11760,7 @@
       <c r="F264" s="6"/>
       <c r="H264" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I264" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11728,7 +11784,7 @@
       <c r="F265" s="6"/>
       <c r="H265" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I265" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11752,7 +11808,7 @@
       <c r="F266" s="6"/>
       <c r="H266" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I266" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11776,7 +11832,7 @@
       <c r="F267" s="6"/>
       <c r="H267" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I267" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11800,7 +11856,7 @@
       <c r="F268" s="6"/>
       <c r="H268" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I268" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11824,7 +11880,7 @@
       <c r="F269" s="6"/>
       <c r="H269" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I269" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11848,7 +11904,7 @@
       <c r="F270" s="6"/>
       <c r="H270" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I270" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11872,7 +11928,7 @@
       <c r="F271" s="6"/>
       <c r="H271" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I271" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11896,7 +11952,7 @@
       <c r="F272" s="6"/>
       <c r="H272" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I272" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11920,7 +11976,7 @@
       <c r="F273" s="6"/>
       <c r="H273" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I273" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11944,7 +12000,7 @@
       <c r="F274" s="6"/>
       <c r="H274" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I274" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11968,7 +12024,7 @@
       <c r="F275" s="6"/>
       <c r="H275" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I275" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11992,7 +12048,7 @@
       <c r="F276" s="6"/>
       <c r="H276" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I276" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12016,7 +12072,7 @@
       <c r="F277" s="6"/>
       <c r="H277" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I277" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12040,7 +12096,7 @@
       <c r="F278" s="6"/>
       <c r="H278" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I278" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12064,7 +12120,7 @@
       <c r="F279" s="6"/>
       <c r="H279" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I279" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12088,7 +12144,7 @@
       <c r="F280" s="6"/>
       <c r="H280" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I280" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12112,7 +12168,7 @@
       <c r="F281" s="6"/>
       <c r="H281" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I281" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12136,7 +12192,7 @@
       <c r="F282" s="6"/>
       <c r="H282" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I282" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12160,7 +12216,7 @@
       <c r="F283" s="6"/>
       <c r="H283" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I283" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12184,7 +12240,7 @@
       <c r="F284" s="6"/>
       <c r="H284" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I284" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12208,7 +12264,7 @@
       <c r="F285" s="6"/>
       <c r="H285" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I285" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12232,7 +12288,7 @@
       <c r="F286" s="6"/>
       <c r="H286" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I286" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12256,7 +12312,7 @@
       <c r="F287" s="6"/>
       <c r="H287" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I287" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12280,7 +12336,7 @@
       <c r="F288" s="6"/>
       <c r="H288" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I288" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12304,7 +12360,7 @@
       <c r="F289" s="6"/>
       <c r="H289" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I289" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12328,7 +12384,7 @@
       <c r="F290" s="6"/>
       <c r="H290" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I290" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12352,7 +12408,7 @@
       <c r="F291" s="6"/>
       <c r="H291" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I291" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12376,7 +12432,7 @@
       <c r="F292" s="6"/>
       <c r="H292" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I292" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12400,7 +12456,7 @@
       <c r="F293" s="6"/>
       <c r="H293" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="I293" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12426,7 +12482,7 @@
       <c r="F294" s="6"/>
       <c r="H294" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I294" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12450,7 +12506,7 @@
       <c r="F295" s="6"/>
       <c r="H295" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I295" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12474,7 +12530,7 @@
       <c r="F296" s="6"/>
       <c r="H296" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I296" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12498,7 +12554,7 @@
       <c r="F297" s="6"/>
       <c r="H297" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I297" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12522,7 +12578,7 @@
       <c r="F298" s="6"/>
       <c r="H298" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I298" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12546,7 +12602,7 @@
       <c r="F299" s="6"/>
       <c r="H299" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I299" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12570,7 +12626,7 @@
       <c r="F300" s="6"/>
       <c r="H300" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I300" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12594,7 +12650,7 @@
       <c r="F301" s="6"/>
       <c r="H301" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I301" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12618,7 +12674,7 @@
       <c r="F302" s="6"/>
       <c r="H302" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I302" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12642,7 +12698,7 @@
       <c r="F303" s="6"/>
       <c r="H303" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I303" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12666,7 +12722,7 @@
       <c r="F304" s="6"/>
       <c r="H304" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I304" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12690,7 +12746,7 @@
       <c r="F305" s="6"/>
       <c r="H305" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I305" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12714,7 +12770,7 @@
       <c r="F306" s="6"/>
       <c r="H306" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I306" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12738,7 +12794,7 @@
       <c r="F307" s="6"/>
       <c r="H307" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I307" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12762,7 +12818,7 @@
       <c r="F308" s="6"/>
       <c r="H308" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I308" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12786,7 +12842,7 @@
       <c r="F309" s="6"/>
       <c r="H309" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I309" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12810,7 +12866,7 @@
       <c r="F310" s="6"/>
       <c r="H310" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I310" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12834,7 +12890,7 @@
       <c r="F311" s="6"/>
       <c r="H311" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I311" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12858,7 +12914,7 @@
       <c r="F312" s="6"/>
       <c r="H312" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I312" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12882,7 +12938,7 @@
       <c r="F313" s="6"/>
       <c r="H313" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I313" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12906,7 +12962,7 @@
       <c r="F314" s="6"/>
       <c r="H314" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I314" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12930,7 +12986,7 @@
       <c r="F315" s="6"/>
       <c r="H315" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I315" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12954,7 +13010,7 @@
       <c r="F316" s="6"/>
       <c r="H316" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I316" s="16" t="str">
         <f t="shared" si="14"/>
@@ -12978,7 +13034,7 @@
       <c r="F317" s="6"/>
       <c r="H317" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I317" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13002,7 +13058,7 @@
       <c r="F318" s="6"/>
       <c r="H318" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I318" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13026,7 +13082,7 @@
       <c r="F319" s="6"/>
       <c r="H319" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I319" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13050,7 +13106,7 @@
       <c r="F320" s="6"/>
       <c r="H320" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I320" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13074,7 +13130,7 @@
       <c r="F321" s="6"/>
       <c r="H321" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I321" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13098,7 +13154,7 @@
       <c r="F322" s="6"/>
       <c r="H322" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I322" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13122,7 +13178,7 @@
       <c r="F323" s="6"/>
       <c r="H323" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I323" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13146,7 +13202,7 @@
       <c r="F324" s="6"/>
       <c r="H324" s="17">
         <f t="shared" si="13"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I324" s="16" t="str">
         <f t="shared" si="14"/>
@@ -13170,7 +13226,7 @@
       <c r="F325" s="6"/>
       <c r="H325" s="17">
         <f t="shared" ref="H325:H388" si="16" xml:space="preserve"> H324 + IF(EXACT(I325, ""), 0, 1)</f>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I325" s="16" t="str">
         <f t="shared" ref="I325:I388" si="17">IF(EXACT(E325, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D325, ""), "null", D325), "::bigint, ", IF(EXACT(E325, ""), "null", E325), "::bigint, ", IF(EXACT(F325, ""), "null", F325), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -13194,7 +13250,7 @@
       <c r="F326" s="6"/>
       <c r="H326" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I326" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13218,7 +13274,7 @@
       <c r="F327" s="6"/>
       <c r="H327" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I327" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13242,7 +13298,7 @@
       <c r="F328" s="6"/>
       <c r="H328" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I328" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13266,7 +13322,7 @@
       <c r="F329" s="6"/>
       <c r="H329" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I329" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13290,7 +13346,7 @@
       <c r="F330" s="6"/>
       <c r="H330" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I330" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13314,7 +13370,7 @@
       <c r="F331" s="6"/>
       <c r="H331" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I331" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13338,7 +13394,7 @@
       <c r="F332" s="6"/>
       <c r="H332" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I332" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13362,7 +13418,7 @@
       <c r="F333" s="6"/>
       <c r="H333" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I333" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13386,7 +13442,7 @@
       <c r="F334" s="6"/>
       <c r="H334" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I334" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13410,7 +13466,7 @@
       <c r="F335" s="6"/>
       <c r="H335" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I335" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13434,7 +13490,7 @@
       <c r="F336" s="6"/>
       <c r="H336" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I336" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13458,7 +13514,7 @@
       <c r="F337" s="6"/>
       <c r="H337" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I337" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13482,7 +13538,7 @@
       <c r="F338" s="6"/>
       <c r="H338" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I338" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13506,7 +13562,7 @@
       <c r="F339" s="6"/>
       <c r="H339" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I339" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13530,7 +13586,7 @@
       <c r="F340" s="6"/>
       <c r="H340" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I340" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13554,7 +13610,7 @@
       <c r="F341" s="6"/>
       <c r="H341" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I341" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13578,7 +13634,7 @@
       <c r="F342" s="6"/>
       <c r="H342" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="I342" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13606,7 +13662,7 @@
       </c>
       <c r="H343" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I343" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13630,7 +13686,7 @@
       <c r="F344" s="6"/>
       <c r="H344" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I344" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13654,7 +13710,7 @@
       <c r="F345" s="6"/>
       <c r="H345" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I345" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13678,7 +13734,7 @@
       <c r="F346" s="6"/>
       <c r="H346" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I346" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13702,7 +13758,7 @@
       <c r="F347" s="6"/>
       <c r="H347" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I347" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13726,7 +13782,7 @@
       <c r="F348" s="6"/>
       <c r="H348" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I348" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13750,7 +13806,7 @@
       <c r="F349" s="6"/>
       <c r="H349" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I349" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13774,7 +13830,7 @@
       <c r="F350" s="6"/>
       <c r="H350" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I350" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13798,7 +13854,7 @@
       <c r="F351" s="6"/>
       <c r="H351" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I351" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13822,7 +13878,7 @@
       <c r="F352" s="6"/>
       <c r="H352" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I352" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13846,7 +13902,7 @@
       <c r="F353" s="6"/>
       <c r="H353" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I353" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13870,7 +13926,7 @@
       <c r="F354" s="6"/>
       <c r="H354" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I354" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13894,7 +13950,7 @@
       <c r="F355" s="6"/>
       <c r="H355" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I355" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13918,7 +13974,7 @@
       <c r="F356" s="6"/>
       <c r="H356" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I356" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13942,7 +13998,7 @@
       <c r="F357" s="6"/>
       <c r="H357" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I357" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13966,7 +14022,7 @@
       <c r="F358" s="6"/>
       <c r="H358" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I358" s="16" t="str">
         <f t="shared" si="17"/>
@@ -13990,7 +14046,7 @@
       <c r="F359" s="6"/>
       <c r="H359" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I359" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14014,7 +14070,7 @@
       <c r="F360" s="6"/>
       <c r="H360" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I360" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14038,7 +14094,7 @@
       <c r="F361" s="6"/>
       <c r="H361" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I361" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14062,7 +14118,7 @@
       <c r="F362" s="6"/>
       <c r="H362" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I362" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14086,7 +14142,7 @@
       <c r="F363" s="6"/>
       <c r="H363" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="I363" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14112,7 +14168,7 @@
       <c r="F364" s="6"/>
       <c r="H364" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I364" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14136,7 +14192,7 @@
       <c r="F365" s="6"/>
       <c r="H365" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I365" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14160,7 +14216,7 @@
       <c r="F366" s="6"/>
       <c r="H366" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I366" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14184,7 +14240,7 @@
       <c r="F367" s="6"/>
       <c r="H367" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I367" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14208,7 +14264,7 @@
       <c r="F368" s="6"/>
       <c r="H368" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I368" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14232,7 +14288,7 @@
       <c r="F369" s="6"/>
       <c r="H369" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I369" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14256,7 +14312,7 @@
       <c r="F370" s="6"/>
       <c r="H370" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I370" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14280,7 +14336,7 @@
       <c r="F371" s="6"/>
       <c r="H371" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I371" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14304,7 +14360,7 @@
       <c r="F372" s="6"/>
       <c r="H372" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I372" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14328,7 +14384,7 @@
       <c r="F373" s="6"/>
       <c r="H373" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I373" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14352,7 +14408,7 @@
       <c r="F374" s="6"/>
       <c r="H374" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I374" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14376,7 +14432,7 @@
       <c r="F375" s="6"/>
       <c r="H375" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I375" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14400,7 +14456,7 @@
       <c r="F376" s="6"/>
       <c r="H376" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I376" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14424,7 +14480,7 @@
       <c r="F377" s="6"/>
       <c r="H377" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I377" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14448,7 +14504,7 @@
       <c r="F378" s="6"/>
       <c r="H378" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I378" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14472,7 +14528,7 @@
       <c r="F379" s="6"/>
       <c r="H379" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I379" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14496,7 +14552,7 @@
       <c r="F380" s="6"/>
       <c r="H380" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I380" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14520,7 +14576,7 @@
       <c r="F381" s="6"/>
       <c r="H381" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I381" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14544,7 +14600,7 @@
       <c r="F382" s="6"/>
       <c r="H382" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I382" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14568,7 +14624,7 @@
       <c r="F383" s="6"/>
       <c r="H383" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I383" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14592,7 +14648,7 @@
       <c r="F384" s="6"/>
       <c r="H384" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I384" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14616,7 +14672,7 @@
       <c r="F385" s="6"/>
       <c r="H385" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I385" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14640,7 +14696,7 @@
       <c r="F386" s="6"/>
       <c r="H386" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I386" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14664,7 +14720,7 @@
       <c r="F387" s="6"/>
       <c r="H387" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I387" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14688,7 +14744,7 @@
       <c r="F388" s="6"/>
       <c r="H388" s="17">
         <f t="shared" si="16"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I388" s="16" t="str">
         <f t="shared" si="17"/>
@@ -14712,7 +14768,7 @@
       <c r="F389" s="6"/>
       <c r="H389" s="17">
         <f t="shared" ref="H389:H452" si="19" xml:space="preserve"> H388 + IF(EXACT(I389, ""), 0, 1)</f>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I389" s="16" t="str">
         <f t="shared" ref="I389:I452" si="20">IF(EXACT(E389, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D389, ""), "null", D389), "::bigint, ", IF(EXACT(E389, ""), "null", E389), "::bigint, ", IF(EXACT(F389, ""), "null", F389), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -14736,7 +14792,7 @@
       <c r="F390" s="6"/>
       <c r="H390" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I390" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14760,7 +14816,7 @@
       <c r="F391" s="6"/>
       <c r="H391" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I391" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14784,7 +14840,7 @@
       <c r="F392" s="6"/>
       <c r="H392" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I392" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14808,7 +14864,7 @@
       <c r="F393" s="6"/>
       <c r="H393" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I393" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14832,7 +14888,7 @@
       <c r="F394" s="6"/>
       <c r="H394" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I394" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14856,7 +14912,7 @@
       <c r="F395" s="6"/>
       <c r="H395" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I395" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14880,7 +14936,7 @@
       <c r="F396" s="6"/>
       <c r="H396" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I396" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14904,7 +14960,7 @@
       <c r="F397" s="6"/>
       <c r="H397" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I397" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14928,7 +14984,7 @@
       <c r="F398" s="6"/>
       <c r="H398" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I398" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14952,7 +15008,7 @@
       <c r="F399" s="6"/>
       <c r="H399" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I399" s="16" t="str">
         <f t="shared" si="20"/>
@@ -14976,7 +15032,7 @@
       <c r="F400" s="6"/>
       <c r="H400" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I400" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15000,7 +15056,7 @@
       <c r="F401" s="6"/>
       <c r="H401" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I401" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15024,7 +15080,7 @@
       <c r="F402" s="6"/>
       <c r="H402" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I402" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15048,7 +15104,7 @@
       <c r="F403" s="6"/>
       <c r="H403" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="I403" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15074,7 +15130,7 @@
       <c r="F404" s="6"/>
       <c r="H404" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I404" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15098,7 +15154,7 @@
       <c r="F405" s="6"/>
       <c r="H405" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I405" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15122,7 +15178,7 @@
       <c r="F406" s="6"/>
       <c r="H406" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I406" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15146,7 +15202,7 @@
       <c r="F407" s="6"/>
       <c r="H407" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I407" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15170,7 +15226,7 @@
       <c r="F408" s="6"/>
       <c r="H408" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I408" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15194,7 +15250,7 @@
       <c r="F409" s="6"/>
       <c r="H409" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I409" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15218,7 +15274,7 @@
       <c r="F410" s="6"/>
       <c r="H410" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I410" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15242,7 +15298,7 @@
       <c r="F411" s="6"/>
       <c r="H411" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I411" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15266,7 +15322,7 @@
       <c r="F412" s="6"/>
       <c r="H412" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I412" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15290,7 +15346,7 @@
       <c r="F413" s="6"/>
       <c r="H413" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I413" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15314,7 +15370,7 @@
       <c r="F414" s="6"/>
       <c r="H414" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I414" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15338,7 +15394,7 @@
       <c r="F415" s="6"/>
       <c r="H415" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I415" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15362,7 +15418,7 @@
       <c r="F416" s="6"/>
       <c r="H416" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I416" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15386,7 +15442,7 @@
       <c r="F417" s="6"/>
       <c r="H417" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I417" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15410,7 +15466,7 @@
       <c r="F418" s="6"/>
       <c r="H418" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I418" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15434,7 +15490,7 @@
       <c r="F419" s="6"/>
       <c r="H419" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I419" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15458,7 +15514,7 @@
       <c r="F420" s="6"/>
       <c r="H420" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I420" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15482,7 +15538,7 @@
       <c r="F421" s="6"/>
       <c r="H421" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I421" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15506,7 +15562,7 @@
       <c r="F422" s="6"/>
       <c r="H422" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I422" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15530,7 +15586,7 @@
       <c r="F423" s="6"/>
       <c r="H423" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I423" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15554,7 +15610,7 @@
       <c r="F424" s="6"/>
       <c r="H424" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I424" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15578,7 +15634,7 @@
       <c r="F425" s="6"/>
       <c r="H425" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I425" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15602,7 +15658,7 @@
       <c r="F426" s="6"/>
       <c r="H426" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I426" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15626,7 +15682,7 @@
       <c r="F427" s="6"/>
       <c r="H427" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I427" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15650,7 +15706,7 @@
       <c r="F428" s="6"/>
       <c r="H428" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I428" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15674,7 +15730,7 @@
       <c r="F429" s="6"/>
       <c r="H429" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I429" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15698,7 +15754,7 @@
       <c r="F430" s="6"/>
       <c r="H430" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I430" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15722,7 +15778,7 @@
       <c r="F431" s="6"/>
       <c r="H431" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I431" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15746,7 +15802,7 @@
       <c r="F432" s="6"/>
       <c r="H432" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I432" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15770,7 +15826,7 @@
       <c r="F433" s="6"/>
       <c r="H433" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I433" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15794,7 +15850,7 @@
       <c r="F434" s="6"/>
       <c r="H434" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I434" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15818,7 +15874,7 @@
       <c r="F435" s="6"/>
       <c r="H435" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I435" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15842,7 +15898,7 @@
       <c r="F436" s="6"/>
       <c r="H436" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I436" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15866,7 +15922,7 @@
       <c r="F437" s="6"/>
       <c r="H437" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I437" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15890,7 +15946,7 @@
       <c r="F438" s="6"/>
       <c r="H438" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I438" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15914,7 +15970,7 @@
       <c r="F439" s="6"/>
       <c r="H439" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I439" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15938,7 +15994,7 @@
       <c r="F440" s="6"/>
       <c r="H440" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I440" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15962,7 +16018,7 @@
       <c r="F441" s="6"/>
       <c r="H441" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I441" s="16" t="str">
         <f t="shared" si="20"/>
@@ -15986,7 +16042,7 @@
       <c r="F442" s="6"/>
       <c r="H442" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I442" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16010,7 +16066,7 @@
       <c r="F443" s="6"/>
       <c r="H443" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I443" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16034,7 +16090,7 @@
       <c r="F444" s="6"/>
       <c r="H444" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I444" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16058,7 +16114,7 @@
       <c r="F445" s="6"/>
       <c r="H445" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I445" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16082,7 +16138,7 @@
       <c r="F446" s="6"/>
       <c r="H446" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I446" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16106,7 +16162,7 @@
       <c r="F447" s="6"/>
       <c r="H447" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I447" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16130,7 +16186,7 @@
       <c r="F448" s="6"/>
       <c r="H448" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I448" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16154,7 +16210,7 @@
       <c r="F449" s="6"/>
       <c r="H449" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I449" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16178,7 +16234,7 @@
       <c r="F450" s="6"/>
       <c r="H450" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I450" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16202,7 +16258,7 @@
       <c r="F451" s="6"/>
       <c r="H451" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I451" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16226,7 +16282,7 @@
       <c r="F452" s="6"/>
       <c r="H452" s="17">
         <f t="shared" si="19"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I452" s="16" t="str">
         <f t="shared" si="20"/>
@@ -16250,7 +16306,7 @@
       <c r="F453" s="6"/>
       <c r="H453" s="17">
         <f t="shared" ref="H453:H516" si="22" xml:space="preserve"> H452 + IF(EXACT(I453, ""), 0, 1)</f>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I453" s="16" t="str">
         <f t="shared" ref="I453:I516" si="23">IF(EXACT(E453, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D453, ""), "null", D453), "::bigint, ", IF(EXACT(E453, ""), "null", E453), "::bigint, ", IF(EXACT(F453, ""), "null", F453), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -16274,7 +16330,7 @@
       <c r="F454" s="6"/>
       <c r="H454" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I454" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16298,7 +16354,7 @@
       <c r="F455" s="6"/>
       <c r="H455" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I455" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16322,7 +16378,7 @@
       <c r="F456" s="6"/>
       <c r="H456" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I456" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16346,7 +16402,7 @@
       <c r="F457" s="6"/>
       <c r="H457" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I457" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16370,7 +16426,7 @@
       <c r="F458" s="6"/>
       <c r="H458" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I458" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16394,7 +16450,7 @@
       <c r="F459" s="6"/>
       <c r="H459" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I459" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16418,7 +16474,7 @@
       <c r="F460" s="6"/>
       <c r="H460" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I460" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16442,7 +16498,7 @@
       <c r="F461" s="6"/>
       <c r="H461" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I461" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16466,7 +16522,7 @@
       <c r="F462" s="6"/>
       <c r="H462" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I462" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16490,7 +16546,7 @@
       <c r="F463" s="6"/>
       <c r="H463" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I463" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16514,7 +16570,7 @@
       <c r="F464" s="6"/>
       <c r="H464" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I464" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16538,7 +16594,7 @@
       <c r="F465" s="6"/>
       <c r="H465" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I465" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16562,7 +16618,7 @@
       <c r="F466" s="6"/>
       <c r="H466" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I466" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16586,7 +16642,7 @@
       <c r="F467" s="6"/>
       <c r="H467" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I467" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16610,7 +16666,7 @@
       <c r="F468" s="6"/>
       <c r="H468" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I468" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16634,7 +16690,7 @@
       <c r="F469" s="6"/>
       <c r="H469" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I469" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16658,7 +16714,7 @@
       <c r="F470" s="6"/>
       <c r="H470" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I470" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16682,7 +16738,7 @@
       <c r="F471" s="6"/>
       <c r="H471" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I471" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16706,7 +16762,7 @@
       <c r="F472" s="6"/>
       <c r="H472" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I472" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16730,7 +16786,7 @@
       <c r="F473" s="6"/>
       <c r="H473" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I473" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16754,7 +16810,7 @@
       <c r="F474" s="6"/>
       <c r="H474" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I474" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16778,7 +16834,7 @@
       <c r="F475" s="6"/>
       <c r="H475" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I475" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16802,7 +16858,7 @@
       <c r="F476" s="6"/>
       <c r="H476" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I476" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16826,7 +16882,7 @@
       <c r="F477" s="6"/>
       <c r="H477" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="I477" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16852,7 +16908,7 @@
       <c r="F478" s="6"/>
       <c r="H478" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I478" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16876,7 +16932,7 @@
       <c r="F479" s="6"/>
       <c r="H479" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I479" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16900,7 +16956,7 @@
       <c r="F480" s="6"/>
       <c r="H480" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I480" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16924,7 +16980,7 @@
       <c r="F481" s="6"/>
       <c r="H481" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I481" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16948,7 +17004,7 @@
       <c r="F482" s="6"/>
       <c r="H482" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I482" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16972,7 +17028,7 @@
       <c r="F483" s="6"/>
       <c r="H483" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I483" s="16" t="str">
         <f t="shared" si="23"/>
@@ -16996,7 +17052,7 @@
       <c r="F484" s="6"/>
       <c r="H484" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I484" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17020,7 +17076,7 @@
       <c r="F485" s="6"/>
       <c r="H485" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I485" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17044,7 +17100,7 @@
       <c r="F486" s="6"/>
       <c r="H486" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I486" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17068,7 +17124,7 @@
       <c r="F487" s="6"/>
       <c r="H487" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I487" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17092,7 +17148,7 @@
       <c r="F488" s="6"/>
       <c r="H488" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I488" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17116,7 +17172,7 @@
       <c r="F489" s="6"/>
       <c r="H489" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I489" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17140,7 +17196,7 @@
       <c r="F490" s="6"/>
       <c r="H490" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I490" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17164,7 +17220,7 @@
       <c r="F491" s="6"/>
       <c r="H491" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I491" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17188,7 +17244,7 @@
       <c r="F492" s="6"/>
       <c r="H492" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I492" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17212,7 +17268,7 @@
       <c r="F493" s="6"/>
       <c r="H493" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="I493" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17238,7 +17294,7 @@
       <c r="F494" s="6"/>
       <c r="H494" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I494" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17262,7 +17318,7 @@
       <c r="F495" s="6"/>
       <c r="H495" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I495" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17286,7 +17342,7 @@
       <c r="F496" s="6"/>
       <c r="H496" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I496" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17310,7 +17366,7 @@
       <c r="F497" s="6"/>
       <c r="H497" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I497" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17334,7 +17390,7 @@
       <c r="F498" s="6"/>
       <c r="H498" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I498" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17358,7 +17414,7 @@
       <c r="F499" s="6"/>
       <c r="H499" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I499" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17382,7 +17438,7 @@
       <c r="F500" s="6"/>
       <c r="H500" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I500" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17406,7 +17462,7 @@
       <c r="F501" s="6"/>
       <c r="H501" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I501" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17430,7 +17486,7 @@
       <c r="F502" s="6"/>
       <c r="H502" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="I502" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17456,7 +17512,7 @@
       <c r="F503" s="6"/>
       <c r="H503" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I503" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17480,7 +17536,7 @@
       <c r="F504" s="6"/>
       <c r="H504" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I504" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17504,7 +17560,7 @@
       <c r="F505" s="6"/>
       <c r="H505" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I505" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17528,7 +17584,7 @@
       <c r="F506" s="6"/>
       <c r="H506" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I506" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17552,7 +17608,7 @@
       <c r="F507" s="6"/>
       <c r="H507" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I507" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17576,7 +17632,7 @@
       <c r="F508" s="6"/>
       <c r="H508" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I508" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17600,7 +17656,7 @@
       <c r="F509" s="6"/>
       <c r="H509" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I509" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17624,7 +17680,7 @@
       <c r="F510" s="6"/>
       <c r="H510" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I510" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17648,7 +17704,7 @@
       <c r="F511" s="6"/>
       <c r="H511" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I511" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17672,7 +17728,7 @@
       <c r="F512" s="6"/>
       <c r="H512" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I512" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17696,7 +17752,7 @@
       <c r="F513" s="6"/>
       <c r="H513" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I513" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17720,7 +17776,7 @@
       <c r="F514" s="6"/>
       <c r="H514" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I514" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17744,7 +17800,7 @@
       <c r="F515" s="6"/>
       <c r="H515" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I515" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17768,7 +17824,7 @@
       <c r="F516" s="6"/>
       <c r="H516" s="17">
         <f t="shared" si="22"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I516" s="16" t="str">
         <f t="shared" si="23"/>
@@ -17792,7 +17848,7 @@
       <c r="F517" s="6"/>
       <c r="H517" s="17">
         <f t="shared" ref="H517:H580" si="25" xml:space="preserve"> H516 + IF(EXACT(I517, ""), 0, 1)</f>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I517" s="16" t="str">
         <f t="shared" ref="I517:I580" si="26">IF(EXACT(E517, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D517, ""), "null", D517), "::bigint, ", IF(EXACT(E517, ""), "null", E517), "::bigint, ", IF(EXACT(F517, ""), "null", F517), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -17816,7 +17872,7 @@
       <c r="F518" s="6"/>
       <c r="H518" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I518" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17840,7 +17896,7 @@
       <c r="F519" s="6"/>
       <c r="H519" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I519" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17864,7 +17920,7 @@
       <c r="F520" s="6"/>
       <c r="H520" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I520" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17888,7 +17944,7 @@
       <c r="F521" s="6"/>
       <c r="H521" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I521" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17912,7 +17968,7 @@
       <c r="F522" s="6"/>
       <c r="H522" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I522" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17936,7 +17992,7 @@
       <c r="F523" s="6"/>
       <c r="H523" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I523" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17960,7 +18016,7 @@
       <c r="F524" s="6"/>
       <c r="H524" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I524" s="16" t="str">
         <f t="shared" si="26"/>
@@ -17984,7 +18040,7 @@
       <c r="F525" s="6"/>
       <c r="H525" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I525" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18008,7 +18064,7 @@
       <c r="F526" s="6"/>
       <c r="H526" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I526" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18032,7 +18088,7 @@
       <c r="F527" s="6"/>
       <c r="H527" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I527" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18056,7 +18112,7 @@
       <c r="F528" s="6"/>
       <c r="H528" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I528" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18080,7 +18136,7 @@
       <c r="F529" s="6"/>
       <c r="H529" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I529" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18104,7 +18160,7 @@
       <c r="F530" s="6"/>
       <c r="H530" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I530" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18128,7 +18184,7 @@
       <c r="F531" s="6"/>
       <c r="H531" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I531" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18152,7 +18208,7 @@
       <c r="F532" s="6"/>
       <c r="H532" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I532" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18176,7 +18232,7 @@
       <c r="F533" s="6"/>
       <c r="H533" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I533" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18200,7 +18256,7 @@
       <c r="F534" s="6"/>
       <c r="H534" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I534" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18224,7 +18280,7 @@
       <c r="F535" s="6"/>
       <c r="H535" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I535" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18248,7 +18304,7 @@
       <c r="F536" s="6"/>
       <c r="H536" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I536" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18272,7 +18328,7 @@
       <c r="F537" s="6"/>
       <c r="H537" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I537" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18296,7 +18352,7 @@
       <c r="F538" s="6"/>
       <c r="H538" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I538" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18320,7 +18376,7 @@
       <c r="F539" s="6"/>
       <c r="H539" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I539" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18344,7 +18400,7 @@
       <c r="F540" s="6"/>
       <c r="H540" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I540" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18368,7 +18424,7 @@
       <c r="F541" s="6"/>
       <c r="H541" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I541" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18392,7 +18448,7 @@
       <c r="F542" s="6"/>
       <c r="H542" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I542" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18416,7 +18472,7 @@
       <c r="F543" s="6"/>
       <c r="H543" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I543" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18440,7 +18496,7 @@
       <c r="F544" s="6"/>
       <c r="H544" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I544" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18464,7 +18520,7 @@
       <c r="F545" s="6"/>
       <c r="H545" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I545" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18488,7 +18544,7 @@
       <c r="F546" s="6"/>
       <c r="H546" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I546" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18512,7 +18568,7 @@
       <c r="F547" s="6"/>
       <c r="H547" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I547" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18536,7 +18592,7 @@
       <c r="F548" s="6"/>
       <c r="H548" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I548" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18560,7 +18616,7 @@
       <c r="F549" s="6"/>
       <c r="H549" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I549" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18584,7 +18640,7 @@
       <c r="F550" s="6"/>
       <c r="H550" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I550" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18608,7 +18664,7 @@
       <c r="F551" s="6"/>
       <c r="H551" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I551" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18632,7 +18688,7 @@
       <c r="F552" s="6"/>
       <c r="H552" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I552" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18656,7 +18712,7 @@
       <c r="F553" s="6"/>
       <c r="H553" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I553" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18680,7 +18736,7 @@
       <c r="F554" s="6"/>
       <c r="H554" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I554" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18704,7 +18760,7 @@
       <c r="F555" s="6"/>
       <c r="H555" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I555" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18728,7 +18784,7 @@
       <c r="F556" s="6"/>
       <c r="H556" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I556" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18752,7 +18808,7 @@
       <c r="F557" s="6"/>
       <c r="H557" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I557" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18776,7 +18832,7 @@
       <c r="F558" s="6"/>
       <c r="H558" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I558" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18800,7 +18856,7 @@
       <c r="F559" s="6"/>
       <c r="H559" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I559" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18824,7 +18880,7 @@
       <c r="F560" s="6"/>
       <c r="H560" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I560" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18848,7 +18904,7 @@
       <c r="F561" s="6"/>
       <c r="H561" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I561" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18872,7 +18928,7 @@
       <c r="F562" s="6"/>
       <c r="H562" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I562" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18896,7 +18952,7 @@
       <c r="F563" s="6"/>
       <c r="H563" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I563" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18920,7 +18976,7 @@
       <c r="F564" s="6"/>
       <c r="H564" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I564" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18944,7 +19000,7 @@
       <c r="F565" s="6"/>
       <c r="H565" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I565" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18968,7 +19024,7 @@
       <c r="F566" s="6"/>
       <c r="H566" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I566" s="16" t="str">
         <f t="shared" si="26"/>
@@ -18992,7 +19048,7 @@
       <c r="F567" s="6"/>
       <c r="H567" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I567" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19016,7 +19072,7 @@
       <c r="F568" s="6"/>
       <c r="H568" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I568" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19040,7 +19096,7 @@
       <c r="F569" s="6"/>
       <c r="H569" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I569" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19064,7 +19120,7 @@
       <c r="F570" s="6"/>
       <c r="H570" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I570" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19088,7 +19144,7 @@
       <c r="F571" s="6"/>
       <c r="H571" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I571" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19112,7 +19168,7 @@
       <c r="F572" s="6"/>
       <c r="H572" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I572" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19136,7 +19192,7 @@
       <c r="F573" s="6"/>
       <c r="H573" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I573" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19160,7 +19216,7 @@
       <c r="F574" s="6"/>
       <c r="H574" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I574" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19184,7 +19240,7 @@
       <c r="F575" s="6"/>
       <c r="H575" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I575" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19208,7 +19264,7 @@
       <c r="F576" s="6"/>
       <c r="H576" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I576" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19232,7 +19288,7 @@
       <c r="F577" s="6"/>
       <c r="H577" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I577" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19256,7 +19312,7 @@
       <c r="F578" s="6"/>
       <c r="H578" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I578" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19280,7 +19336,7 @@
       <c r="F579" s="6"/>
       <c r="H579" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I579" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19304,7 +19360,7 @@
       <c r="F580" s="6"/>
       <c r="H580" s="17">
         <f t="shared" si="25"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I580" s="16" t="str">
         <f t="shared" si="26"/>
@@ -19328,7 +19384,7 @@
       <c r="F581" s="6"/>
       <c r="H581" s="17">
         <f t="shared" ref="H581:H592" si="28" xml:space="preserve"> H580 + IF(EXACT(I581, ""), 0, 1)</f>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I581" s="16" t="str">
         <f t="shared" ref="I581:I592" si="29">IF(EXACT(E581, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_UserToUserRole_SET""(varSystemLoginSession, null, null, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D581, ""), "null", D581), "::bigint, ", IF(EXACT(E581, ""), "null", E581), "::bigint, ", IF(EXACT(F581, ""), "null", F581), "::bigint, '0001-01-01 01:01:01+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar);"))</f>
@@ -19352,7 +19408,7 @@
       <c r="F582" s="6"/>
       <c r="H582" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I582" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19376,7 +19432,7 @@
       <c r="F583" s="6"/>
       <c r="H583" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I583" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19400,7 +19456,7 @@
       <c r="F584" s="6"/>
       <c r="H584" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I584" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19424,7 +19480,7 @@
       <c r="F585" s="6"/>
       <c r="H585" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I585" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19448,7 +19504,7 @@
       <c r="F586" s="6"/>
       <c r="H586" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="I586" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19474,7 +19530,7 @@
       <c r="F587" s="6"/>
       <c r="H587" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="I587" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19498,7 +19554,7 @@
       <c r="F588" s="6"/>
       <c r="H588" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="I588" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19522,7 +19578,7 @@
       <c r="F589" s="6"/>
       <c r="H589" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="I589" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19546,7 +19602,7 @@
       <c r="F590" s="6"/>
       <c r="H590" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="I590" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19567,7 +19623,7 @@
       <c r="F591" s="6"/>
       <c r="H591" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="I591" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19588,7 +19644,7 @@
       <c r="F592" s="6"/>
       <c r="H592" s="17">
         <f t="shared" si="28"/>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="I592" s="16" t="str">
         <f t="shared" si="29"/>
@@ -19596,13 +19652,13 @@
       </c>
     </row>
     <row r="593" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B593" s="9" t="str">
+      <c r="B593" s="9">
         <f>IF(EXACT([1]MAIN!$F589, ""), "", [1]MAIN!$F589)</f>
-        <v/>
+        <v>4000000000586</v>
       </c>
       <c r="C593" s="9" t="str">
         <f>IF(EXACT([1]MAIN!$F589, ""), "", [1]MAIN!$B589)</f>
-        <v/>
+        <v>(LDAP) budi.sandika</v>
       </c>
       <c r="D593" s="9"/>
       <c r="E593" s="9"/>
@@ -19610,13 +19666,13 @@
       <c r="H593" s="5"/>
     </row>
     <row r="594" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B594" s="2" t="str">
+      <c r="B594" s="2">
         <f>IF(EXACT([1]MAIN!$F590, ""), "", [1]MAIN!$F590)</f>
-        <v/>
+        <v>4000000000587</v>
       </c>
       <c r="C594" s="2" t="str">
         <f>IF(EXACT([1]MAIN!$F590, ""), "", [1]MAIN!$B590)</f>
-        <v/>
+        <v>(LDAP) fachri.azhar</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -19624,13 +19680,13 @@
       <c r="H594" s="5"/>
     </row>
     <row r="595" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B595" s="2" t="str">
+      <c r="B595" s="2">
         <f>IF(EXACT([1]MAIN!$F591, ""), "", [1]MAIN!$F591)</f>
-        <v/>
+        <v>4000000000588</v>
       </c>
       <c r="C595" s="2" t="str">
         <f>IF(EXACT([1]MAIN!$F591, ""), "", [1]MAIN!$B591)</f>
-        <v/>
+        <v>(LDAP) firmansyah.awaludin</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -19638,13 +19694,13 @@
       <c r="H595" s="5"/>
     </row>
     <row r="596" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B596" s="2" t="str">
+      <c r="B596" s="2">
         <f>IF(EXACT([1]MAIN!$F592, ""), "", [1]MAIN!$F592)</f>
-        <v/>
+        <v>4000000000589</v>
       </c>
       <c r="C596" s="2" t="str">
         <f>IF(EXACT([1]MAIN!$F592, ""), "", [1]MAIN!$B592)</f>
-        <v/>
+        <v>(LDAP) iman.faisal</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -19652,13 +19708,13 @@
       <c r="H596" s="5"/>
     </row>
     <row r="597" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B597" s="2" t="str">
+      <c r="B597" s="2">
         <f>IF(EXACT([1]MAIN!$F593, ""), "", [1]MAIN!$F593)</f>
-        <v/>
+        <v>4000000000590</v>
       </c>
       <c r="C597" s="2" t="str">
         <f>IF(EXACT([1]MAIN!$F593, ""), "", [1]MAIN!$B593)</f>
-        <v/>
+        <v>(LDAP) muhammad.irfan</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -19666,13 +19722,13 @@
       <c r="H597" s="5"/>
     </row>
     <row r="598" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B598" s="2" t="str">
+      <c r="B598" s="2">
         <f>IF(EXACT([1]MAIN!$F594, ""), "", [1]MAIN!$F594)</f>
-        <v/>
+        <v>4000000000591</v>
       </c>
       <c r="C598" s="2" t="str">
         <f>IF(EXACT([1]MAIN!$F594, ""), "", [1]MAIN!$B594)</f>
-        <v/>
+        <v>(LDAP) syafri.johansah</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -20101,7 +20157,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H592">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>EXACT(H3, H4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20737,17 +20793,17 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="25" t="str">
+      <c r="B36" s="25">
         <f>IF(EXACT(MAIN!$I36, ""), "", MAIN!$H36)</f>
-        <v/>
-      </c>
-      <c r="C36" s="6" t="str">
+        <v>96000000000006</v>
+      </c>
+      <c r="C36" s="6">
         <f>IF(EXACT(MAIN!$I36, ""), "", MAIN!$D36)</f>
-        <v/>
-      </c>
-      <c r="D36" s="6" t="str">
+        <v>4000000000029</v>
+      </c>
+      <c r="D36" s="6">
         <f>IF(EXACT(MAIN!$I36, ""), "", MAIN!$E36)</f>
-        <v/>
+        <v>95000000000021</v>
       </c>
       <c r="E36" s="6" t="str">
         <f>IF(EXACT(MAIN!$I36, ""), "", ""&amp;MAIN!$F36)</f>
@@ -20919,7 +20975,7 @@
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="25">
         <f>IF(EXACT(MAIN!$I46, ""), "", MAIN!$H46)</f>
-        <v>96000000000006</v>
+        <v>96000000000007</v>
       </c>
       <c r="C46" s="6">
         <f>IF(EXACT(MAIN!$I46, ""), "", MAIN!$D46)</f>
@@ -24573,7 +24629,7 @@
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" s="25">
         <f>IF(EXACT(MAIN!$I249, ""), "", MAIN!$H249)</f>
-        <v>96000000000007</v>
+        <v>96000000000008</v>
       </c>
       <c r="C249" s="6">
         <f>IF(EXACT(MAIN!$I249, ""), "", MAIN!$D249)</f>
@@ -25383,7 +25439,7 @@
     <row r="294" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B294" s="25">
         <f>IF(EXACT(MAIN!$I294, ""), "", MAIN!$H294)</f>
-        <v>96000000000008</v>
+        <v>96000000000009</v>
       </c>
       <c r="C294" s="6">
         <f>IF(EXACT(MAIN!$I294, ""), "", MAIN!$D294)</f>
@@ -26265,7 +26321,7 @@
     <row r="343" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B343" s="25">
         <f>IF(EXACT(MAIN!$I343, ""), "", MAIN!$H343)</f>
-        <v>96000000000009</v>
+        <v>96000000000010</v>
       </c>
       <c r="C343" s="6">
         <f>IF(EXACT(MAIN!$I343, ""), "", MAIN!$D343)</f>
@@ -26643,7 +26699,7 @@
     <row r="364" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B364" s="25">
         <f>IF(EXACT(MAIN!$I364, ""), "", MAIN!$H364)</f>
-        <v>96000000000010</v>
+        <v>96000000000011</v>
       </c>
       <c r="C364" s="6">
         <f>IF(EXACT(MAIN!$I364, ""), "", MAIN!$D364)</f>
@@ -27363,7 +27419,7 @@
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B404" s="25">
         <f>IF(EXACT(MAIN!$I404, ""), "", MAIN!$H404)</f>
-        <v>96000000000011</v>
+        <v>96000000000012</v>
       </c>
       <c r="C404" s="6">
         <f>IF(EXACT(MAIN!$I404, ""), "", MAIN!$D404)</f>
@@ -28695,7 +28751,7 @@
     <row r="478" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B478" s="25">
         <f>IF(EXACT(MAIN!$I478, ""), "", MAIN!$H478)</f>
-        <v>96000000000012</v>
+        <v>96000000000013</v>
       </c>
       <c r="C478" s="6">
         <f>IF(EXACT(MAIN!$I478, ""), "", MAIN!$D478)</f>
@@ -28983,7 +29039,7 @@
     <row r="494" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B494" s="25">
         <f>IF(EXACT(MAIN!$I494, ""), "", MAIN!$H494)</f>
-        <v>96000000000013</v>
+        <v>96000000000014</v>
       </c>
       <c r="C494" s="6">
         <f>IF(EXACT(MAIN!$I494, ""), "", MAIN!$D494)</f>
@@ -29145,7 +29201,7 @@
     <row r="503" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B503" s="25">
         <f>IF(EXACT(MAIN!$I503, ""), "", MAIN!$H503)</f>
-        <v>96000000000014</v>
+        <v>96000000000015</v>
       </c>
       <c r="C503" s="6">
         <f>IF(EXACT(MAIN!$I503, ""), "", MAIN!$D503)</f>
@@ -30657,7 +30713,7 @@
     <row r="587" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B587" s="25">
         <f>IF(EXACT(MAIN!$I587, ""), "", MAIN!$H587)</f>
-        <v>96000000000015</v>
+        <v>96000000000016</v>
       </c>
       <c r="C587" s="6">
         <f>IF(EXACT(MAIN!$I587, ""), "", MAIN!$D587)</f>
